--- a/demo.xlsx
+++ b/demo.xlsx
@@ -14,51 +14,956 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Hello</t>
-  </si>
-  <si>
-    <t>World</t>
-  </si>
-  <si>
-    <t>test xx</t>
-  </si>
-  <si>
-    <t>https://www.rust-lang.org</t>
-  </si>
-  <si>
-    <t>Rust</t>
-  </si>
-  <si>
-    <t>Merged cells</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="314">
+  <si>
+    <t>1974Q1</t>
+  </si>
+  <si>
+    <t>11.63255023</t>
+  </si>
+  <si>
+    <t>5.903658491</t>
+  </si>
+  <si>
+    <t>-0.618735936</t>
+  </si>
+  <si>
+    <t>0.1547356</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>1974Q2</t>
+  </si>
+  <si>
+    <t>11.60415248</t>
+  </si>
+  <si>
+    <t>5.873820002</t>
+  </si>
+  <si>
+    <t>-0.580747868</t>
+  </si>
+  <si>
+    <t>0.1779912</t>
+  </si>
+  <si>
+    <t>0.0955</t>
+  </si>
+  <si>
+    <t>1974Q3</t>
+  </si>
+  <si>
+    <t>11.58152067</t>
+  </si>
+  <si>
+    <t>5.837817615</t>
+  </si>
+  <si>
+    <t>-0.542847846</t>
+  </si>
+  <si>
+    <t>0.1705647</t>
+  </si>
+  <si>
+    <t>1974Q4</t>
+  </si>
+  <si>
+    <t>11.60184741</t>
+  </si>
+  <si>
+    <t>5.812254744</t>
+  </si>
+  <si>
+    <t>-0.504604068</t>
+  </si>
+  <si>
+    <t>0.1522273</t>
+  </si>
+  <si>
+    <t>1975Q1</t>
+  </si>
+  <si>
+    <t>11.5863049</t>
+  </si>
+  <si>
+    <t>5.803945406</t>
+  </si>
+  <si>
+    <t>-0.486458456</t>
+  </si>
+  <si>
+    <t>0.1342276</t>
+  </si>
+  <si>
+    <t>0.0885</t>
+  </si>
+  <si>
+    <t>1975Q2</t>
+  </si>
+  <si>
+    <t>11.60449857</t>
+  </si>
+  <si>
+    <t>5.786761176</t>
+  </si>
+  <si>
+    <t>-0.454438596</t>
+  </si>
+  <si>
+    <t>0.1334805</t>
+  </si>
+  <si>
+    <t>0.079</t>
+  </si>
+  <si>
+    <t>1975Q3</t>
+  </si>
+  <si>
+    <t>11.65330707</t>
+  </si>
+  <si>
+    <t>5.833412391</t>
+  </si>
+  <si>
+    <t>-0.440514202</t>
+  </si>
+  <si>
+    <t>0.1284132</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>1975Q4</t>
+  </si>
+  <si>
+    <t>11.76424639</t>
+  </si>
+  <si>
+    <t>5.929848684</t>
+  </si>
+  <si>
+    <t>-0.438759555</t>
+  </si>
+  <si>
+    <t>0.1288357</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>1976Q1</t>
+  </si>
+  <si>
+    <t>11.75293375</t>
+  </si>
+  <si>
+    <t>5.93765414</t>
+  </si>
+  <si>
+    <t>-0.403904637</t>
+  </si>
+  <si>
+    <t>0.1413445</t>
+  </si>
+  <si>
+    <t>0.072</t>
+  </si>
+  <si>
+    <t>1976Q2</t>
+  </si>
+  <si>
+    <t>11.76547979</t>
+  </si>
+  <si>
+    <t>5.935332459</t>
+  </si>
+  <si>
+    <t>-0.373344374</t>
+  </si>
+  <si>
+    <t>0.1531187</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>1976Q3</t>
+  </si>
+  <si>
+    <t>11.78058298</t>
+  </si>
+  <si>
+    <t>5.931754616</t>
+  </si>
+  <si>
+    <t>-0.35766975</t>
+  </si>
+  <si>
+    <t>0.1605787</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>1976Q4</t>
+  </si>
+  <si>
+    <t>11.77017822</t>
+  </si>
+  <si>
+    <t>5.940524348</t>
+  </si>
+  <si>
+    <t>-0.324953607</t>
+  </si>
+  <si>
+    <t>0.1618325</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>1977Q1</t>
+  </si>
+  <si>
+    <t>11.74589213</t>
+  </si>
+  <si>
+    <t>5.928043535</t>
+  </si>
+  <si>
+    <t>-0.309815317</t>
+  </si>
+  <si>
+    <t>0.1665814</t>
+  </si>
+  <si>
+    <t>0.097</t>
+  </si>
+  <si>
+    <t>1977Q2</t>
+  </si>
+  <si>
+    <t>11.76865141</t>
+  </si>
+  <si>
+    <t>5.937180205</t>
+  </si>
+  <si>
+    <t>-0.288414439</t>
+  </si>
+  <si>
+    <t>0.1630213</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>1977Q3</t>
+  </si>
+  <si>
+    <t>11.74982457</t>
+  </si>
+  <si>
+    <t>5.956553434</t>
+  </si>
+  <si>
+    <t>-0.264239472</t>
+  </si>
+  <si>
+    <t>0.1692466</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>1977Q4</t>
+  </si>
+  <si>
+    <t>11.74869654</t>
+  </si>
+  <si>
+    <t>5.93960188</t>
+  </si>
+  <si>
+    <t>-0.228864977</t>
+  </si>
+  <si>
+    <t>0.1728896</t>
+  </si>
+  <si>
+    <t>1978Q1</t>
+  </si>
+  <si>
+    <t>11.70491581</t>
+  </si>
+  <si>
+    <t>5.932407774</t>
+  </si>
+  <si>
+    <t>-0.212193051</t>
+  </si>
+  <si>
+    <t>0.1717371</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>1978Q2</t>
+  </si>
+  <si>
+    <t>11.70344416</t>
+  </si>
+  <si>
+    <t>5.931237518</t>
+  </si>
+  <si>
+    <t>-0.197211039</t>
+  </si>
+  <si>
+    <t>0.1757075</t>
+  </si>
+  <si>
+    <t>1978Q3</t>
+  </si>
+  <si>
+    <t>11.70300114</t>
+  </si>
+  <si>
+    <t>5.972135693</t>
+  </si>
+  <si>
+    <t>-0.185326965</t>
+  </si>
+  <si>
+    <t>0.1711933</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>1978Q4</t>
+  </si>
+  <si>
+    <t>11.70367301</t>
+  </si>
+  <si>
+    <t>5.968729043</t>
+  </si>
+  <si>
+    <t>-0.162762793</t>
+  </si>
+  <si>
+    <t>0.1820041</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>1979Q1</t>
+  </si>
+  <si>
+    <t>11.67890305</t>
+  </si>
+  <si>
+    <t>5.962472819</t>
+  </si>
+  <si>
+    <t>-0.138595908</t>
+  </si>
+  <si>
+    <t>0.1700434</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>1979Q2</t>
+  </si>
+  <si>
+    <t>11.7077816</t>
+  </si>
+  <si>
+    <t>5.986486427</t>
+  </si>
+  <si>
+    <t>-0.120611747</t>
+  </si>
+  <si>
+    <t>0.1689293</t>
+  </si>
+  <si>
+    <t>1979Q3</t>
+  </si>
+  <si>
+    <t>11.67615506</t>
+  </si>
+  <si>
+    <t>5.984788311</t>
+  </si>
+  <si>
+    <t>-0.087185643</t>
+  </si>
+  <si>
+    <t>0.178275</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>1979Q4</t>
+  </si>
+  <si>
+    <t>11.68592074</t>
+  </si>
+  <si>
+    <t>5.977043816</t>
+  </si>
+  <si>
+    <t>-0.059363063</t>
+  </si>
+  <si>
+    <t>0.1804463</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>1980Q1</t>
+  </si>
+  <si>
+    <t>11.64160637</t>
+  </si>
+  <si>
+    <t>5.985101093</t>
+  </si>
+  <si>
+    <t>-0.035864737</t>
+  </si>
+  <si>
+    <t>0.1910667</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>1980Q2</t>
+  </si>
+  <si>
+    <t>11.63517976</t>
+  </si>
+  <si>
+    <t>5.945198333</t>
+  </si>
+  <si>
+    <t>-0.009390005</t>
+  </si>
+  <si>
+    <t>0.1967</t>
+  </si>
+  <si>
+    <t>0.121</t>
+  </si>
+  <si>
+    <t>1980Q3</t>
+  </si>
+  <si>
+    <t>11.60926098</t>
+  </si>
+  <si>
+    <t>5.901625175</t>
+  </si>
+  <si>
+    <t>0.014105078</t>
+  </si>
+  <si>
+    <t>0.1923</t>
+  </si>
+  <si>
+    <t>1980Q4</t>
+  </si>
+  <si>
+    <t>11.65761265</t>
+  </si>
+  <si>
+    <t>5.902439872</t>
+  </si>
+  <si>
+    <t>0.033274886</t>
+  </si>
+  <si>
+    <t>0.1829667</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>1981Q1</t>
+  </si>
+  <si>
+    <t>11.62781841</t>
+  </si>
+  <si>
+    <t>5.897421689</t>
+  </si>
+  <si>
+    <t>0.062005602</t>
+  </si>
+  <si>
+    <t>0.1845333</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>1981Q2</t>
+  </si>
+  <si>
+    <t>11.62885232</t>
+  </si>
+  <si>
+    <t>5.893865775</t>
+  </si>
+  <si>
+    <t>0.103995519</t>
+  </si>
+  <si>
+    <t>0.1928667</t>
+  </si>
+  <si>
+    <t>1981Q3</t>
+  </si>
+  <si>
+    <t>11.60377761</t>
+  </si>
+  <si>
+    <t>5.883451071</t>
+  </si>
+  <si>
+    <t>0.125532616</t>
+  </si>
+  <si>
+    <t>0.2032333</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>1981Q4</t>
+  </si>
+  <si>
+    <t>11.62906485</t>
+  </si>
+  <si>
+    <t>5.894687367</t>
+  </si>
+  <si>
+    <t>0.150714788</t>
+  </si>
+  <si>
+    <t>0.1923333</t>
+  </si>
+  <si>
+    <t>1982Q1</t>
+  </si>
+  <si>
+    <t>11.60202333</t>
+  </si>
+  <si>
+    <t>5.902336021</t>
+  </si>
+  <si>
+    <t>0.17440421</t>
+  </si>
+  <si>
+    <t>0.2032667</t>
+  </si>
+  <si>
+    <t>1982Q2</t>
+  </si>
+  <si>
+    <t>11.60377532</t>
+  </si>
+  <si>
+    <t>5.924388142</t>
+  </si>
+  <si>
+    <t>0.197886662</t>
+  </si>
+  <si>
+    <t>0.2107667</t>
+  </si>
+  <si>
+    <t>1982Q3</t>
+  </si>
+  <si>
+    <t>11.59462235</t>
+  </si>
+  <si>
+    <t>5.949906605</t>
+  </si>
+  <si>
+    <t>0.220124751</t>
+  </si>
+  <si>
+    <t>0.2088667</t>
+  </si>
+  <si>
+    <t>1982Q4</t>
+  </si>
+  <si>
+    <t>11.60382017</t>
+  </si>
+  <si>
+    <t>5.928667975</t>
+  </si>
+  <si>
+    <t>0.24549181</t>
+  </si>
+  <si>
+    <t>0.1970667</t>
+  </si>
+  <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>1983Q1</t>
+  </si>
+  <si>
+    <t>11.61712564</t>
+  </si>
+  <si>
+    <t>5.915890154</t>
+  </si>
+  <si>
+    <t>0.258962672</t>
+  </si>
+  <si>
+    <t>0.1611</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>1983Q2</t>
+  </si>
+  <si>
+    <t>11.68809589</t>
+  </si>
+  <si>
+    <t>5.938669863</t>
+  </si>
+  <si>
+    <t>0.269752543</t>
+  </si>
+  <si>
+    <t>0.1383</t>
+  </si>
+  <si>
+    <t>0.087</t>
+  </si>
+  <si>
+    <t>1983Q3</t>
+  </si>
+  <si>
+    <t>11.72651492</t>
+  </si>
+  <si>
+    <t>5.932185504</t>
+  </si>
+  <si>
+    <t>0.284460916</t>
+  </si>
+  <si>
+    <t>0.1417</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>1983Q4</t>
+  </si>
+  <si>
+    <t>11.78125043</t>
+  </si>
+  <si>
+    <t>5.974308978</t>
+  </si>
+  <si>
+    <t>0.300511045</t>
+  </si>
+  <si>
+    <t>0.1338</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>1984Q1</t>
+  </si>
+  <si>
+    <t>11.79762019</t>
+  </si>
+  <si>
+    <t>5.963915791</t>
+  </si>
+  <si>
+    <t>0.316073973</t>
+  </si>
+  <si>
+    <t>0.1341</t>
+  </si>
+  <si>
+    <t>1984Q2</t>
+  </si>
+  <si>
+    <t>11.84191204</t>
+  </si>
+  <si>
+    <t>6.000993502</t>
+  </si>
+  <si>
+    <t>0.331141421</t>
+  </si>
+  <si>
+    <t>1984Q3</t>
+  </si>
+  <si>
+    <t>11.84029539</t>
+  </si>
+  <si>
+    <t>5.990537618</t>
+  </si>
+  <si>
+    <t>0.343332245</t>
+  </si>
+  <si>
+    <t>0.1448</t>
+  </si>
+  <si>
+    <t>1984Q4</t>
+  </si>
+  <si>
+    <t>11.92357753</t>
+  </si>
+  <si>
+    <t>5.968702189</t>
+  </si>
+  <si>
+    <t>0.355987185</t>
+  </si>
+  <si>
+    <t>0.1412</t>
+  </si>
+  <si>
+    <t>0.09164725</t>
+  </si>
+  <si>
+    <t>1985Q1</t>
+  </si>
+  <si>
+    <t>11.90296222</t>
+  </si>
+  <si>
+    <t>6.013799749</t>
+  </si>
+  <si>
+    <t>0.370684955</t>
+  </si>
+  <si>
+    <t>0.1317</t>
+  </si>
+  <si>
+    <t>0.09026459</t>
+  </si>
+  <si>
+    <t>1985Q2</t>
+  </si>
+  <si>
+    <t>11.92678366</t>
+  </si>
+  <si>
+    <t>6.003318016</t>
+  </si>
+  <si>
+    <t>0.382693587</t>
+  </si>
+  <si>
+    <t>0.1196</t>
+  </si>
+  <si>
+    <t>0.08763519</t>
+  </si>
+  <si>
+    <t>1985Q3</t>
+  </si>
+  <si>
+    <t>11.9709981</t>
+  </si>
+  <si>
+    <t>6.044517043</t>
+  </si>
+  <si>
+    <t>0.386468568</t>
+  </si>
+  <si>
+    <t>0.08004259</t>
+  </si>
+  <si>
+    <t>1985Q4</t>
+  </si>
+  <si>
+    <t>12.02590261</t>
+  </si>
+  <si>
+    <t>6.081291311</t>
+  </si>
+  <si>
+    <t>0.39268935</t>
+  </si>
+  <si>
+    <t>0.1037</t>
+  </si>
+  <si>
+    <t>0.07558355</t>
+  </si>
+  <si>
+    <t>1986Q1</t>
+  </si>
+  <si>
+    <t>12.05115078</t>
+  </si>
+  <si>
+    <t>6.095570251</t>
+  </si>
+  <si>
+    <t>0.397668025</t>
+  </si>
+  <si>
+    <t>0.0977</t>
+  </si>
+  <si>
+    <t>0.07237913</t>
+  </si>
+  <si>
+    <t>1986Q2</t>
+  </si>
+  <si>
+    <t>12.07546038</t>
+  </si>
+  <si>
+    <t>6.089658293</t>
+  </si>
+  <si>
+    <t>0.413028</t>
+  </si>
+  <si>
+    <t>0.0984</t>
+  </si>
+  <si>
+    <t>0.06745833</t>
+  </si>
+  <si>
+    <t>1986Q3</t>
+  </si>
+  <si>
+    <t>12.05618931</t>
+  </si>
+  <si>
+    <t>6.098991614</t>
+  </si>
+  <si>
+    <t>0.418267905</t>
+  </si>
+  <si>
+    <t>0.1115</t>
+  </si>
+  <si>
+    <t>0.06794079</t>
+  </si>
+  <si>
+    <t>1986Q4</t>
+  </si>
+  <si>
+    <t>12.07162795</t>
+  </si>
+  <si>
+    <t>6.080705894</t>
+  </si>
+  <si>
+    <t>0.42829645</t>
+  </si>
+  <si>
+    <t>0.114267</t>
+  </si>
+  <si>
+    <t>0.0753957</t>
+  </si>
+  <si>
+    <t>1987Q1</t>
+  </si>
+  <si>
+    <t>12.02795222</t>
+  </si>
+  <si>
+    <t>6.061174595</t>
+  </si>
+  <si>
+    <t>0.44676111</t>
+  </si>
+  <si>
+    <t>0.1193333</t>
+  </si>
+  <si>
+    <t>0.07665326</t>
+  </si>
+  <si>
+    <t>1987Q2</t>
+  </si>
+  <si>
+    <t>12.03978834</t>
+  </si>
+  <si>
+    <t>6.063729858</t>
+  </si>
+  <si>
+    <t>0.458330586</t>
+  </si>
+  <si>
+    <t>0.1173333</t>
+  </si>
+  <si>
+    <t>0.07625867</t>
+  </si>
+  <si>
+    <t>1987Q3</t>
+  </si>
+  <si>
+    <t>12.0152941</t>
+  </si>
+  <si>
+    <t>6.050830024</t>
+  </si>
+  <si>
+    <t>0.468334521</t>
+  </si>
+  <si>
+    <t>0.1189667</t>
+  </si>
+  <si>
+    <t>0.07516289</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
-  </numFmts>
-  <fonts count="3">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -74,7 +979,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -82,41 +987,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="top"/>
-      <protection locked="0"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,78 +1287,1116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4">
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <f>SIN(PI()/4)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>44951</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C13" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>93</v>
+      </c>
+      <c r="B17" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>119</v>
+      </c>
+      <c r="E21" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
+      <c r="C22" t="s">
+        <v>124</v>
+      </c>
+      <c r="D22" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" t="s">
+        <v>128</v>
+      </c>
+      <c r="C23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B24" t="s">
+        <v>134</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>139</v>
+      </c>
+      <c r="B25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25" t="s">
+        <v>142</v>
+      </c>
+      <c r="E25" t="s">
+        <v>143</v>
+      </c>
+      <c r="F25" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B26" t="s">
+        <v>146</v>
+      </c>
+      <c r="C26" t="s">
+        <v>147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>148</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>151</v>
+      </c>
+      <c r="B27" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" t="s">
+        <v>155</v>
+      </c>
+      <c r="F27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B28" t="s">
+        <v>157</v>
+      </c>
+      <c r="C28" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" t="s">
+        <v>159</v>
+      </c>
+      <c r="E28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>162</v>
+      </c>
+      <c r="B29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" t="s">
+        <v>165</v>
+      </c>
+      <c r="E29" t="s">
+        <v>166</v>
+      </c>
+      <c r="F29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B30" t="s">
+        <v>169</v>
+      </c>
+      <c r="C30" t="s">
+        <v>170</v>
+      </c>
+      <c r="D30" t="s">
+        <v>171</v>
+      </c>
+      <c r="E30" t="s">
+        <v>172</v>
+      </c>
+      <c r="F30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" t="s">
+        <v>175</v>
+      </c>
+      <c r="D31" t="s">
+        <v>176</v>
+      </c>
+      <c r="E31" t="s">
+        <v>177</v>
+      </c>
+      <c r="F31" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>179</v>
+      </c>
+      <c r="B32" t="s">
+        <v>180</v>
+      </c>
+      <c r="C32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D32" t="s">
+        <v>182</v>
+      </c>
+      <c r="E32" t="s">
+        <v>183</v>
+      </c>
+      <c r="F32" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>185</v>
+      </c>
+      <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" t="s">
+        <v>187</v>
+      </c>
+      <c r="E33" t="s">
+        <v>188</v>
+      </c>
+      <c r="F33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" t="s">
+        <v>191</v>
+      </c>
+      <c r="D34" t="s">
+        <v>192</v>
+      </c>
+      <c r="E34" t="s">
+        <v>193</v>
+      </c>
+      <c r="F34" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" t="s">
+        <v>195</v>
+      </c>
+      <c r="C35" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>199</v>
+      </c>
+      <c r="B36" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>205</v>
+      </c>
+      <c r="B37" t="s">
+        <v>206</v>
+      </c>
+      <c r="C37" t="s">
+        <v>207</v>
+      </c>
+      <c r="D37" t="s">
+        <v>208</v>
+      </c>
+      <c r="E37" t="s">
+        <v>209</v>
+      </c>
+      <c r="F37" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>211</v>
+      </c>
+      <c r="B38" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" t="s">
+        <v>213</v>
+      </c>
+      <c r="D38" t="s">
+        <v>214</v>
+      </c>
+      <c r="E38" t="s">
+        <v>215</v>
+      </c>
+      <c r="F38" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39" t="s">
+        <v>218</v>
+      </c>
+      <c r="C39" t="s">
+        <v>219</v>
+      </c>
+      <c r="D39" t="s">
+        <v>220</v>
+      </c>
+      <c r="E39" t="s">
+        <v>221</v>
+      </c>
+      <c r="F39" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>223</v>
+      </c>
+      <c r="B40" t="s">
+        <v>224</v>
+      </c>
+      <c r="C40" t="s">
+        <v>225</v>
+      </c>
+      <c r="D40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E40" t="s">
+        <v>227</v>
+      </c>
+      <c r="F40" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" t="s">
+        <v>232</v>
+      </c>
+      <c r="E41" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" t="s">
+        <v>236</v>
+      </c>
+      <c r="D42" t="s">
+        <v>237</v>
+      </c>
+      <c r="E42" t="s">
+        <v>221</v>
+      </c>
+      <c r="F42" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>238</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>240</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+      <c r="E43" t="s">
+        <v>242</v>
+      </c>
+      <c r="F43" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>243</v>
+      </c>
+      <c r="B44" t="s">
+        <v>244</v>
+      </c>
+      <c r="C44" t="s">
+        <v>245</v>
+      </c>
+      <c r="D44" t="s">
+        <v>246</v>
+      </c>
+      <c r="E44" t="s">
+        <v>247</v>
+      </c>
+      <c r="F44" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>249</v>
+      </c>
+      <c r="B45" t="s">
+        <v>250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>251</v>
+      </c>
+      <c r="D45" t="s">
+        <v>252</v>
+      </c>
+      <c r="E45" t="s">
+        <v>253</v>
+      </c>
+      <c r="F45" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" t="s">
+        <v>256</v>
+      </c>
+      <c r="C46" t="s">
+        <v>257</v>
+      </c>
+      <c r="D46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" t="s">
+        <v>259</v>
+      </c>
+      <c r="F46" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>261</v>
+      </c>
+      <c r="B47" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>264</v>
+      </c>
+      <c r="E47" t="s">
+        <v>161</v>
+      </c>
+      <c r="F47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>266</v>
+      </c>
+      <c r="B48" t="s">
+        <v>267</v>
+      </c>
+      <c r="C48" t="s">
+        <v>268</v>
+      </c>
+      <c r="D48" t="s">
+        <v>269</v>
+      </c>
+      <c r="E48" t="s">
+        <v>270</v>
+      </c>
+      <c r="F48" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" t="s">
+        <v>273</v>
+      </c>
+      <c r="C49" t="s">
+        <v>274</v>
+      </c>
+      <c r="D49" t="s">
+        <v>275</v>
+      </c>
+      <c r="E49" t="s">
+        <v>276</v>
+      </c>
+      <c r="F49" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>278</v>
+      </c>
+      <c r="B50" t="s">
+        <v>279</v>
+      </c>
+      <c r="C50" t="s">
+        <v>280</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" t="s">
+        <v>282</v>
+      </c>
+      <c r="F50" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>284</v>
+      </c>
+      <c r="B51" t="s">
+        <v>285</v>
+      </c>
+      <c r="C51" t="s">
+        <v>286</v>
+      </c>
+      <c r="D51" t="s">
+        <v>287</v>
+      </c>
+      <c r="E51" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>290</v>
+      </c>
+      <c r="B52" t="s">
+        <v>291</v>
+      </c>
+      <c r="C52" t="s">
+        <v>292</v>
+      </c>
+      <c r="D52" t="s">
+        <v>293</v>
+      </c>
+      <c r="E52" t="s">
+        <v>294</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>296</v>
+      </c>
+      <c r="B53" t="s">
+        <v>297</v>
+      </c>
+      <c r="C53" t="s">
+        <v>298</v>
+      </c>
+      <c r="D53" t="s">
+        <v>299</v>
+      </c>
+      <c r="E53" t="s">
+        <v>300</v>
+      </c>
+      <c r="F53" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C54" t="s">
+        <v>304</v>
+      </c>
+      <c r="D54" t="s">
+        <v>305</v>
+      </c>
+      <c r="E54" t="s">
+        <v>306</v>
+      </c>
+      <c r="F54" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" t="s">
+        <v>309</v>
+      </c>
+      <c r="C55" t="s">
+        <v>310</v>
+      </c>
+      <c r="D55" t="s">
+        <v>311</v>
+      </c>
+      <c r="E55" t="s">
+        <v>312</v>
+      </c>
+      <c r="F55" t="s">
+        <v>313</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A10:B10"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A8" r:id="rId1"/>
-    <hyperlink ref="A9" r:id="rId2"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>